--- a/結合テスト仕様書兼結果報告書.xlsx
+++ b/結合テスト仕様書兼結果報告書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18315" windowHeight="11865"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="18315" windowHeight="11865" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="A01" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="A03" sheetId="5" r:id="rId3"/>
     <sheet name="A04" sheetId="6" r:id="rId4"/>
     <sheet name="A05" sheetId="7" r:id="rId5"/>
-    <sheet name="B01" sheetId="8" r:id="rId6"/>
-    <sheet name="B02" sheetId="9" r:id="rId7"/>
-    <sheet name="B03" sheetId="10" r:id="rId8"/>
-    <sheet name="C01" sheetId="11" r:id="rId9"/>
-    <sheet name="C02" sheetId="12" r:id="rId10"/>
-    <sheet name="C03" sheetId="13" r:id="rId11"/>
-    <sheet name="C04" sheetId="14" r:id="rId12"/>
-    <sheet name="C05" sheetId="15" r:id="rId13"/>
-    <sheet name="D01" sheetId="16" r:id="rId14"/>
+    <sheet name="C01" sheetId="8" r:id="rId6"/>
+    <sheet name="C02" sheetId="9" r:id="rId7"/>
+    <sheet name="C03" sheetId="10" r:id="rId8"/>
+    <sheet name="D01" sheetId="11" r:id="rId9"/>
+    <sheet name="D02" sheetId="12" r:id="rId10"/>
+    <sheet name="D03" sheetId="13" r:id="rId11"/>
+    <sheet name="D04" sheetId="14" r:id="rId12"/>
+    <sheet name="D05" sheetId="15" r:id="rId13"/>
+    <sheet name="E01" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A01'!$A$1:$O$53</definedName>
@@ -28,22 +28,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'A03'!$A$1:$O$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'A04'!$A$1:$O$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'A05'!$A$1:$O$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'B01'!$A$1:$O$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'B02'!$A$1:$O$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'B03'!$A$1:$O$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'C01'!$A$1:$O$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'C02'!$A$1:$O$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'C03'!$A$1:$O$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'C04'!$A$1:$O$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'C05'!$A$1:$O$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'D01'!$A$1:$O$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'C01'!$A$1:$O$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'C02'!$A$1:$O$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'C03'!$A$1:$O$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'D01'!$A$1:$O$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'D02'!$A$1:$O$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'D03'!$A$1:$O$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'D04'!$A$1:$O$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'D05'!$A$1:$O$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'E01'!$A$1:$O$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="668">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -3004,63 +3004,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B01-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B01-002</t>
-  </si>
-  <si>
-    <t>B01-003</t>
-  </si>
-  <si>
-    <t>B01-004</t>
-  </si>
-  <si>
-    <t>B01-005</t>
-  </si>
-  <si>
-    <t>B01-006</t>
-  </si>
-  <si>
-    <t>B01-007</t>
-  </si>
-  <si>
-    <t>B01-008</t>
-  </si>
-  <si>
-    <t>B01-009</t>
-  </si>
-  <si>
-    <t>B01-010</t>
-  </si>
-  <si>
-    <t>B01-011</t>
-  </si>
-  <si>
-    <t>B01-012</t>
-  </si>
-  <si>
-    <t>B01-013</t>
-  </si>
-  <si>
-    <t>B01-014</t>
-  </si>
-  <si>
-    <t>B01-015</t>
-  </si>
-  <si>
-    <t>B01-016</t>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーが発生せず、回答更新画面を表示すること</t>
     <rPh sb="4" eb="6">
       <t>ハッセイ</t>
@@ -3078,25 +3021,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B02-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B02-002</t>
-  </si>
-  <si>
-    <t>B02-003</t>
-  </si>
-  <si>
-    <t>B02-004</t>
-  </si>
-  <si>
-    <t>B02-005</t>
-  </si>
-  <si>
-    <t>B02-006</t>
   </si>
   <si>
     <t>ステータス更新画面に遷移すること
@@ -3131,15 +3055,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B02-007</t>
-  </si>
-  <si>
-    <t>B02-008</t>
-  </si>
-  <si>
-    <t>B02-009</t>
-  </si>
-  <si>
     <t>回答更新画面を表示すること
 入力した内容が反映されないこと</t>
     <rPh sb="0" eb="2">
@@ -3166,10 +3081,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーが発生せず、質問詳細画面を表示すること</t>
     <rPh sb="4" eb="6">
       <t>ハッセイ</t>
@@ -3203,27 +3114,6 @@
       <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B02-010</t>
-  </si>
-  <si>
-    <t>B02-011</t>
-  </si>
-  <si>
-    <t>B02-012</t>
-  </si>
-  <si>
-    <t>B02-013</t>
-  </si>
-  <si>
-    <t>B02-014</t>
-  </si>
-  <si>
-    <t>B02-015</t>
-  </si>
-  <si>
-    <t>B02-016</t>
   </si>
   <si>
     <t>回答が削除されること
@@ -3354,19 +3244,6 @@
   </si>
   <si>
     <t>A05-008</t>
-  </si>
-  <si>
-    <t>B03-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B03-002</t>
-  </si>
-  <si>
-    <t>B03-003</t>
-  </si>
-  <si>
-    <t>B03-004</t>
   </si>
   <si>
     <t>(前提)
@@ -8378,10 +8255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーが発生せずに利用者一覧画面を表示すること</t>
     <rPh sb="4" eb="6">
       <t>ハッセイ</t>
@@ -8442,10 +8315,6 @@
     <rPh sb="58" eb="60">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C01-001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9443,9 +9312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B03-005</t>
-  </si>
-  <si>
     <t>C01-002</t>
   </si>
   <si>
@@ -9489,42 +9355,6 @@
   </si>
   <si>
     <t>C01-016</t>
-  </si>
-  <si>
-    <t>C01-017</t>
-  </si>
-  <si>
-    <t>C01-018</t>
-  </si>
-  <si>
-    <t>C01-019</t>
-  </si>
-  <si>
-    <t>C01-020</t>
-  </si>
-  <si>
-    <t>C01-021</t>
-  </si>
-  <si>
-    <t>C01-022</t>
-  </si>
-  <si>
-    <t>C01-023</t>
-  </si>
-  <si>
-    <t>C01-024</t>
-  </si>
-  <si>
-    <t>C01-025</t>
-  </si>
-  <si>
-    <t>C01-026</t>
-  </si>
-  <si>
-    <t>C01-027</t>
-  </si>
-  <si>
-    <t>C01-028</t>
   </si>
   <si>
     <t>(前提)
@@ -9627,14 +9457,6 @@
     <rPh sb="9" eb="11">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C02-001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -10620,14 +10442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C03-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C03-002</t>
   </si>
   <si>
@@ -10638,33 +10452,6 @@
   </si>
   <si>
     <t>C03-005</t>
-  </si>
-  <si>
-    <t>C03-006</t>
-  </si>
-  <si>
-    <t>C03-007</t>
-  </si>
-  <si>
-    <t>C03-008</t>
-  </si>
-  <si>
-    <t>C03-009</t>
-  </si>
-  <si>
-    <t>C03-010</t>
-  </si>
-  <si>
-    <t>C03-011</t>
-  </si>
-  <si>
-    <t>C03-012</t>
-  </si>
-  <si>
-    <t>C03-013</t>
-  </si>
-  <si>
-    <t>C03-014</t>
   </si>
   <si>
     <t>「氏名」に値がセットされていること</t>
@@ -11190,74 +10977,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C04-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C04-002</t>
-  </si>
-  <si>
-    <t>C04-003</t>
-  </si>
-  <si>
-    <t>C04-004</t>
-  </si>
-  <si>
-    <t>C04-005</t>
-  </si>
-  <si>
-    <t>C04-006</t>
-  </si>
-  <si>
-    <t>C04-007</t>
-  </si>
-  <si>
-    <t>C04-008</t>
-  </si>
-  <si>
-    <t>C04-009</t>
-  </si>
-  <si>
-    <t>C04-010</t>
-  </si>
-  <si>
-    <t>C04-011</t>
-  </si>
-  <si>
-    <t>C04-012</t>
-  </si>
-  <si>
-    <t>C04-013</t>
-  </si>
-  <si>
-    <t>C04-014</t>
-  </si>
-  <si>
-    <t>C04-015</t>
-  </si>
-  <si>
-    <t>C04-016</t>
-  </si>
-  <si>
-    <t>C04-017</t>
-  </si>
-  <si>
-    <t>C04-018</t>
-  </si>
-  <si>
-    <t>C04-019</t>
-  </si>
-  <si>
-    <t>C04-020</t>
-  </si>
-  <si>
-    <t>C03-015</t>
-  </si>
-  <si>
     <t>(前提)
 質問管理表にログインしていないこと
 (手順)
@@ -11431,9 +11150,6 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C04-021</t>
   </si>
   <si>
     <t>エラーが発生せず、利用者一覧画面を表示すること</t>
@@ -11572,14 +11288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C05-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(前提)
 質問管理表が利用できるユーザでログインしていること
 利用者が登録されていること
@@ -11693,19 +11401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C05-002</t>
-  </si>
-  <si>
-    <t>C05-003</t>
-  </si>
-  <si>
-    <t>C05-004</t>
-  </si>
-  <si>
-    <t>D01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(前提)
 (手順)
 1.ログイン画面を表示する</t>
@@ -11788,9 +11483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C05-005</t>
-  </si>
-  <si>
     <t>・ログイン画面を表示すること
 ・ログアウトボタンが表示されないこと
 ・ログインできないこと</t>
@@ -11804,12 +11496,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C05-006</t>
-  </si>
-  <si>
-    <t>C05-007</t>
   </si>
   <si>
     <t>ログアウト処理</t>
@@ -11983,12 +11669,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C05-008</t>
-  </si>
-  <si>
-    <t>C05-009</t>
-  </si>
-  <si>
     <t>(前提)
 質問管理表が利用できるユーザでログインしていること
 利用者が6件以上登録されていること
@@ -12034,9 +11714,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C01-029</t>
-  </si>
-  <si>
     <t>(前提)
 質問管理表を利用できる利用者でログインしていること
 質問が6件以上登録されていること
@@ -12086,6 +11763,342 @@
       <t>トモフミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C01-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C02-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C02-013</t>
+  </si>
+  <si>
+    <t>C02-014</t>
+  </si>
+  <si>
+    <t>C02-015</t>
+  </si>
+  <si>
+    <t>C02-016</t>
+  </si>
+  <si>
+    <t>C02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C03-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D01-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D01-002</t>
+  </si>
+  <si>
+    <t>D01-003</t>
+  </si>
+  <si>
+    <t>D01-004</t>
+  </si>
+  <si>
+    <t>D01-005</t>
+  </si>
+  <si>
+    <t>D01-006</t>
+  </si>
+  <si>
+    <t>D01-007</t>
+  </si>
+  <si>
+    <t>D01-008</t>
+  </si>
+  <si>
+    <t>D01-009</t>
+  </si>
+  <si>
+    <t>D01-010</t>
+  </si>
+  <si>
+    <t>D01-011</t>
+  </si>
+  <si>
+    <t>D01-012</t>
+  </si>
+  <si>
+    <t>D01-013</t>
+  </si>
+  <si>
+    <t>D01-014</t>
+  </si>
+  <si>
+    <t>D01-015</t>
+  </si>
+  <si>
+    <t>D01-016</t>
+  </si>
+  <si>
+    <t>D01-017</t>
+  </si>
+  <si>
+    <t>D01-018</t>
+  </si>
+  <si>
+    <t>D01-019</t>
+  </si>
+  <si>
+    <t>D01-020</t>
+  </si>
+  <si>
+    <t>D01-021</t>
+  </si>
+  <si>
+    <t>D01-022</t>
+  </si>
+  <si>
+    <t>D01-023</t>
+  </si>
+  <si>
+    <t>D01-024</t>
+  </si>
+  <si>
+    <t>D01-025</t>
+  </si>
+  <si>
+    <t>D01-026</t>
+  </si>
+  <si>
+    <t>D01-027</t>
+  </si>
+  <si>
+    <t>D01-028</t>
+  </si>
+  <si>
+    <t>D01-029</t>
+  </si>
+  <si>
+    <t>D02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D02-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D02-002</t>
+  </si>
+  <si>
+    <t>D02-003</t>
+  </si>
+  <si>
+    <t>D02-004</t>
+  </si>
+  <si>
+    <t>D02-005</t>
+  </si>
+  <si>
+    <t>D02-006</t>
+  </si>
+  <si>
+    <t>D02-007</t>
+  </si>
+  <si>
+    <t>D02-008</t>
+  </si>
+  <si>
+    <t>D02-009</t>
+  </si>
+  <si>
+    <t>D02-010</t>
+  </si>
+  <si>
+    <t>D02-011</t>
+  </si>
+  <si>
+    <t>D02-012</t>
+  </si>
+  <si>
+    <t>D03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D03-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D03-002</t>
+  </si>
+  <si>
+    <t>D03-003</t>
+  </si>
+  <si>
+    <t>D03-004</t>
+  </si>
+  <si>
+    <t>D03-005</t>
+  </si>
+  <si>
+    <t>D03-006</t>
+  </si>
+  <si>
+    <t>D03-007</t>
+  </si>
+  <si>
+    <t>D03-008</t>
+  </si>
+  <si>
+    <t>D03-009</t>
+  </si>
+  <si>
+    <t>D03-010</t>
+  </si>
+  <si>
+    <t>D03-011</t>
+  </si>
+  <si>
+    <t>D03-012</t>
+  </si>
+  <si>
+    <t>D03-013</t>
+  </si>
+  <si>
+    <t>D03-014</t>
+  </si>
+  <si>
+    <t>D03-015</t>
+  </si>
+  <si>
+    <t>D04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D04-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D04-002</t>
+  </si>
+  <si>
+    <t>D04-003</t>
+  </si>
+  <si>
+    <t>D04-004</t>
+  </si>
+  <si>
+    <t>D04-005</t>
+  </si>
+  <si>
+    <t>D04-006</t>
+  </si>
+  <si>
+    <t>D04-007</t>
+  </si>
+  <si>
+    <t>D04-008</t>
+  </si>
+  <si>
+    <t>D04-009</t>
+  </si>
+  <si>
+    <t>D04-010</t>
+  </si>
+  <si>
+    <t>D04-011</t>
+  </si>
+  <si>
+    <t>D04-012</t>
+  </si>
+  <si>
+    <t>D04-013</t>
+  </si>
+  <si>
+    <t>D04-014</t>
+  </si>
+  <si>
+    <t>D04-015</t>
+  </si>
+  <si>
+    <t>D04-016</t>
+  </si>
+  <si>
+    <t>D04-017</t>
+  </si>
+  <si>
+    <t>D04-018</t>
+  </si>
+  <si>
+    <t>D04-019</t>
+  </si>
+  <si>
+    <t>D04-020</t>
+  </si>
+  <si>
+    <t>D04-021</t>
+  </si>
+  <si>
+    <t>D05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D05-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D05-002</t>
+  </si>
+  <si>
+    <t>D05-003</t>
+  </si>
+  <si>
+    <t>D05-004</t>
+  </si>
+  <si>
+    <t>E01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E05-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E05-002</t>
+  </si>
+  <si>
+    <t>E05-003</t>
+  </si>
+  <si>
+    <t>E05-004</t>
+  </si>
+  <si>
+    <t>E05-005</t>
+  </si>
+  <si>
+    <t>E05-006</t>
+  </si>
+  <si>
+    <t>E05-007</t>
+  </si>
+  <si>
+    <t>E05-008</t>
+  </si>
+  <si>
+    <t>E05-009</t>
   </si>
 </sst>
 </file>
@@ -12355,6 +12368,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12404,9 +12420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12712,7 +12725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
@@ -12730,15 +12743,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -12751,31 +12764,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12784,14 +12797,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12853,7 +12866,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -12886,7 +12899,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>44</v>
@@ -12919,7 +12932,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>46</v>
@@ -12952,7 +12965,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>45</v>
@@ -12985,7 +12998,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>47</v>
@@ -13018,7 +13031,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
@@ -13051,7 +13064,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>49</v>
@@ -13084,7 +13097,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>50</v>
@@ -13117,7 +13130,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>51</v>
@@ -13150,7 +13163,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>52</v>
@@ -13183,7 +13196,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>53</v>
@@ -13216,7 +13229,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>54</v>
@@ -13249,7 +13262,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>55</v>
@@ -13282,7 +13295,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>57</v>
@@ -13315,7 +13328,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>61</v>
@@ -13348,7 +13361,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>63</v>
@@ -13381,7 +13394,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>64</v>
@@ -13414,7 +13427,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>65</v>
@@ -13447,7 +13460,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>66</v>
@@ -13480,7 +13493,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>67</v>
@@ -13513,7 +13526,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>68</v>
@@ -13546,7 +13559,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>69</v>
@@ -13579,7 +13592,7 @@
         <v>59</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>69</v>
@@ -13612,7 +13625,7 @@
         <v>59</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>77</v>
@@ -13645,10 +13658,10 @@
         <v>59</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>659</v>
+        <v>558</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>40</v>
@@ -13678,7 +13691,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>80</v>
@@ -13711,7 +13724,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
@@ -13744,7 +13757,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>84</v>
@@ -13777,7 +13790,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>84</v>
@@ -13810,7 +13823,7 @@
         <v>58</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>84</v>
@@ -13843,7 +13856,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>84</v>
@@ -13876,7 +13889,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>91</v>
@@ -13909,7 +13922,7 @@
         <v>58</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>89</v>
@@ -13942,7 +13955,7 @@
         <v>58</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>89</v>
@@ -13975,7 +13988,7 @@
         <v>58</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>89</v>
@@ -14008,7 +14021,7 @@
         <v>58</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>89</v>
@@ -14041,7 +14054,7 @@
         <v>58</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>92</v>
@@ -14074,7 +14087,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>98</v>
@@ -14107,7 +14120,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>99</v>
@@ -14140,7 +14153,7 @@
         <v>58</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>99</v>
@@ -14173,7 +14186,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>182</v>
@@ -14206,7 +14219,7 @@
         <v>58</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>182</v>
@@ -14239,7 +14252,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>183</v>
@@ -14266,13 +14279,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>101</v>
@@ -14299,16 +14312,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>40</v>
@@ -14347,7 +14360,7 @@
   <dimension ref="A2:O20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14364,15 +14377,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -14385,31 +14398,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14418,14 +14431,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14481,16 +14494,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -14514,13 +14527,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>111</v>
@@ -14547,16 +14560,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -14580,16 +14593,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -14613,16 +14626,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -14646,13 +14659,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>163</v>
@@ -14679,16 +14692,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>40</v>
@@ -14712,16 +14725,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>525</v>
+        <v>610</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
@@ -14745,16 +14758,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>40</v>
@@ -14778,16 +14791,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>40</v>
@@ -14811,16 +14824,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>40</v>
@@ -14844,16 +14857,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
@@ -14892,7 +14905,7 @@
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14909,15 +14922,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -14930,31 +14943,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14963,14 +14976,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15026,16 +15039,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -15059,16 +15072,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
@@ -15092,16 +15105,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -15125,16 +15138,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -15158,16 +15171,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -15191,16 +15204,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
@@ -15224,16 +15237,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>570</v>
+        <v>622</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>40</v>
@@ -15257,16 +15270,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
@@ -15290,16 +15303,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>40</v>
@@ -15323,16 +15336,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>40</v>
@@ -15356,16 +15369,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>40</v>
@@ -15389,16 +15402,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
@@ -15422,16 +15435,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>576</v>
+        <v>628</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>40</v>
@@ -15455,13 +15468,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>221</v>
@@ -15488,16 +15501,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>40</v>
@@ -15536,7 +15549,7 @@
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15553,15 +15566,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -15574,31 +15587,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -15607,14 +15620,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15670,16 +15683,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -15703,16 +15716,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
@@ -15736,16 +15749,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -15769,16 +15782,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -15802,16 +15815,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -15835,16 +15848,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
@@ -15868,13 +15881,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>223</v>
@@ -15901,13 +15914,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>211</v>
@@ -15934,16 +15947,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>40</v>
@@ -15967,16 +15980,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>40</v>
@@ -16000,16 +16013,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>40</v>
@@ -16033,16 +16046,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
@@ -16066,16 +16079,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>40</v>
@@ -16099,16 +16112,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>40</v>
@@ -16132,16 +16145,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>40</v>
@@ -16165,16 +16178,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>588</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>40</v>
@@ -16198,16 +16211,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>40</v>
@@ -16231,16 +16244,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>40</v>
@@ -16264,16 +16277,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>40</v>
@@ -16297,13 +16310,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>221</v>
@@ -16330,16 +16343,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>621</v>
+        <v>532</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>40</v>
@@ -16378,7 +16391,7 @@
   <dimension ref="A2:O12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16395,15 +16408,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -16416,31 +16429,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -16449,14 +16462,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16512,16 +16525,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -16545,16 +16558,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
@@ -16578,16 +16591,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>630</v>
+        <v>538</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>631</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -16611,16 +16624,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>632</v>
+        <v>540</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -16658,8 +16671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16676,15 +16689,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -16697,31 +16710,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -16730,14 +16743,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16793,16 +16806,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -16826,16 +16839,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>639</v>
+        <v>543</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
@@ -16859,16 +16872,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>640</v>
+        <v>544</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -16892,16 +16905,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>641</v>
+        <v>545</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -16925,16 +16938,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>649</v>
+        <v>550</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>643</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -16958,16 +16971,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>645</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
@@ -16991,16 +17004,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>651</v>
+        <v>552</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>645</v>
+        <v>548</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>40</v>
@@ -17024,16 +17037,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>648</v>
+        <v>549</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>652</v>
+        <v>553</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>653</v>
+        <v>554</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
@@ -17057,16 +17070,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>648</v>
+        <v>549</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>655</v>
+        <v>556</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>40</v>
@@ -17122,15 +17135,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -17143,31 +17156,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -17176,14 +17189,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17245,10 +17258,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -17278,7 +17291,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>111</v>
@@ -17311,7 +17324,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>112</v>
@@ -17344,7 +17357,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>114</v>
@@ -17377,7 +17390,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>115</v>
@@ -17410,7 +17423,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>113</v>
@@ -17443,7 +17456,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>116</v>
@@ -17476,7 +17489,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>118</v>
@@ -17509,7 +17522,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>117</v>
@@ -17542,7 +17555,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>128</v>
@@ -17575,7 +17588,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>164</v>
@@ -17608,7 +17621,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>163</v>
@@ -17641,7 +17654,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>133</v>
@@ -17674,7 +17687,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>134</v>
@@ -17707,7 +17720,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>135</v>
@@ -17740,7 +17753,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>136</v>
@@ -17773,7 +17786,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>137</v>
@@ -17806,7 +17819,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>138</v>
@@ -17839,7 +17852,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>139</v>
@@ -17872,7 +17885,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>64</v>
@@ -17905,7 +17918,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>157</v>
@@ -17938,7 +17951,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>65</v>
@@ -17971,7 +17984,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>66</v>
@@ -18004,7 +18017,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>68</v>
@@ -18037,7 +18050,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>67</v>
@@ -18070,7 +18083,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>69</v>
@@ -18103,7 +18116,7 @@
         <v>59</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>158</v>
@@ -18136,7 +18149,7 @@
         <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>159</v>
@@ -18169,7 +18182,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>160</v>
@@ -18202,7 +18215,7 @@
         <v>59</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>161</v>
@@ -18235,7 +18248,7 @@
         <v>59</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>162</v>
@@ -18268,7 +18281,7 @@
         <v>79</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>168</v>
@@ -18301,7 +18314,7 @@
         <v>79</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>168</v>
@@ -18334,7 +18347,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>169</v>
@@ -18367,10 +18380,10 @@
         <v>79</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>40</v>
@@ -18400,7 +18413,7 @@
         <v>79</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>170</v>
@@ -18433,7 +18446,7 @@
         <v>174</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>171</v>
@@ -18466,7 +18479,7 @@
         <v>175</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>172</v>
@@ -18499,7 +18512,7 @@
         <v>176</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>173</v>
@@ -18532,7 +18545,7 @@
         <v>177</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>180</v>
@@ -18559,13 +18572,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>172</v>
@@ -18592,13 +18605,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>179</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>181</v>
@@ -18625,16 +18638,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>40</v>
@@ -18690,15 +18703,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -18711,31 +18724,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -18744,14 +18757,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18813,7 +18826,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>208</v>
@@ -18846,7 +18859,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>209</v>
@@ -18879,7 +18892,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>114</v>
@@ -18912,7 +18925,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>115</v>
@@ -18945,7 +18958,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>113</v>
@@ -18978,7 +18991,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>118</v>
@@ -19011,7 +19024,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>210</v>
@@ -19044,7 +19057,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>211</v>
@@ -19077,7 +19090,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>220</v>
@@ -19110,7 +19123,7 @@
         <v>212</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>213</v>
@@ -19143,7 +19156,7 @@
         <v>212</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>214</v>
@@ -19176,7 +19189,7 @@
         <v>212</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>215</v>
@@ -19209,7 +19222,7 @@
         <v>212</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>216</v>
@@ -19242,7 +19255,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>217</v>
@@ -19275,7 +19288,7 @@
         <v>212</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>218</v>
@@ -19308,7 +19321,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>244</v>
@@ -19341,7 +19354,7 @@
         <v>219</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>221</v>
@@ -19368,16 +19381,16 @@
         <v>41</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>40</v>
@@ -19433,15 +19446,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -19454,31 +19467,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -19487,14 +19500,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19556,7 +19569,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>222</v>
@@ -19589,7 +19602,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>209</v>
@@ -19622,7 +19635,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>114</v>
@@ -19655,7 +19668,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>115</v>
@@ -19688,7 +19701,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>113</v>
@@ -19721,7 +19734,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>116</v>
@@ -19754,7 +19767,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>118</v>
@@ -19787,7 +19800,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>223</v>
@@ -19820,7 +19833,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>211</v>
@@ -19853,7 +19866,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>220</v>
@@ -19886,7 +19899,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>224</v>
@@ -19919,7 +19932,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>231</v>
@@ -19952,7 +19965,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>232</v>
@@ -19985,7 +19998,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>233</v>
@@ -20018,7 +20031,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>234</v>
@@ -20051,7 +20064,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>235</v>
@@ -20084,7 +20097,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>236</v>
@@ -20117,7 +20130,7 @@
         <v>240</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>225</v>
@@ -20150,7 +20163,7 @@
         <v>240</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>226</v>
@@ -20183,7 +20196,7 @@
         <v>240</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>227</v>
@@ -20216,7 +20229,7 @@
         <v>240</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>228</v>
@@ -20249,7 +20262,7 @@
         <v>240</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>229</v>
@@ -20282,7 +20295,7 @@
         <v>240</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>230</v>
@@ -20315,7 +20328,7 @@
         <v>240</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>218</v>
@@ -20348,7 +20361,7 @@
         <v>240</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>243</v>
@@ -20381,7 +20394,7 @@
         <v>219</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>221</v>
@@ -20411,13 +20424,13 @@
         <v>282</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>40</v>
@@ -20473,15 +20486,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -20494,31 +20507,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -20527,14 +20540,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20596,7 +20609,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>239</v>
@@ -20629,7 +20642,7 @@
         <v>241</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>242</v>
@@ -20662,7 +20675,7 @@
         <v>241</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>245</v>
@@ -20695,7 +20708,7 @@
         <v>241</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>246</v>
@@ -20728,7 +20741,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>251</v>
@@ -20761,7 +20774,7 @@
         <v>241</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>251</v>
@@ -20794,7 +20807,7 @@
         <v>241</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>255</v>
@@ -20821,16 +20834,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
@@ -20854,16 +20867,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>40</v>
@@ -20902,7 +20915,7 @@
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20919,15 +20932,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -20940,31 +20953,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -20973,14 +20986,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21036,13 +21049,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>295</v>
+        <v>563</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>283</v>
@@ -21069,13 +21082,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>296</v>
+        <v>442</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>284</v>
@@ -21102,13 +21115,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>297</v>
+        <v>443</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>210</v>
@@ -21135,13 +21148,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>298</v>
+        <v>444</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>211</v>
@@ -21168,13 +21181,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>299</v>
+        <v>445</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>285</v>
@@ -21201,13 +21214,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>300</v>
+        <v>446</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>286</v>
@@ -21234,13 +21247,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>301</v>
+        <v>447</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>287</v>
@@ -21267,13 +21280,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>302</v>
+        <v>448</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>287</v>
@@ -21300,13 +21313,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>288</v>
@@ -21333,13 +21346,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>289</v>
@@ -21366,13 +21379,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>290</v>
@@ -21399,13 +21412,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>291</v>
@@ -21432,13 +21445,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>307</v>
+        <v>453</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>291</v>
@@ -21465,13 +21478,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>308</v>
+        <v>454</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>293</v>
@@ -21498,13 +21511,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>309</v>
+        <v>455</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>292</v>
@@ -21531,16 +21544,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>40</v>
@@ -21579,7 +21592,7 @@
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21596,15 +21609,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -21617,31 +21630,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -21650,14 +21663,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21713,16 +21726,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>313</v>
+        <v>564</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -21746,13 +21759,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>284</v>
@@ -21779,13 +21792,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>223</v>
@@ -21812,13 +21825,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>211</v>
@@ -21845,16 +21858,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -21878,16 +21891,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
@@ -21911,13 +21924,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>320</v>
+        <v>468</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>287</v>
@@ -21944,16 +21957,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
@@ -21977,13 +21990,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>288</v>
@@ -22010,13 +22023,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>327</v>
+        <v>471</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>289</v>
@@ -22043,13 +22056,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>328</v>
+        <v>476</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>290</v>
@@ -22076,13 +22089,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>291</v>
@@ -22109,13 +22122,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>330</v>
+        <v>565</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>291</v>
@@ -22142,13 +22155,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>331</v>
+        <v>566</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>293</v>
@@ -22175,13 +22188,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>332</v>
+        <v>567</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>292</v>
@@ -22208,16 +22221,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>333</v>
+        <v>568</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>40</v>
@@ -22256,7 +22269,7 @@
   <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22272,15 +22285,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="14"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -22293,31 +22306,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42093</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -22326,14 +22339,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22389,16 +22402,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>339</v>
+        <v>571</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -22422,16 +22435,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>340</v>
+        <v>507</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
@@ -22455,16 +22468,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>341</v>
+        <v>508</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -22488,16 +22501,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>342</v>
+        <v>509</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -22521,16 +22534,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -22569,7 +22582,7 @@
   <dimension ref="A2:O37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22586,15 +22599,15 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
@@ -22607,31 +22620,31 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="15">
         <v>42117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -22640,14 +22653,14 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22703,16 +22716,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -22736,16 +22749,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>40</v>
@@ -22769,16 +22782,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -22802,16 +22815,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -22835,16 +22848,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>487</v>
+        <v>577</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
@@ -22868,16 +22881,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
@@ -22901,16 +22914,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>40</v>
@@ -22934,16 +22947,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>40</v>
@@ -22967,16 +22980,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>491</v>
+        <v>581</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>40</v>
@@ -23000,13 +23013,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>55</v>
@@ -23033,16 +23046,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>40</v>
@@ -23066,16 +23079,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>494</v>
+        <v>584</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
@@ -23099,16 +23112,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>40</v>
@@ -23132,16 +23145,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>496</v>
+        <v>586</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>40</v>
@@ -23165,13 +23178,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>77</v>
@@ -23198,16 +23211,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>498</v>
+        <v>588</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>658</v>
+        <v>557</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>659</v>
+        <v>558</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>40</v>
@@ -23231,16 +23244,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>40</v>
@@ -23264,16 +23277,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>40</v>
@@ -23297,16 +23310,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>40</v>
@@ -23330,16 +23343,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>40</v>
@@ -23363,16 +23376,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>40</v>
@@ -23396,16 +23409,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>40</v>
@@ -23429,16 +23442,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>40</v>
@@ -23462,16 +23475,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>40</v>
@@ -23495,16 +23508,16 @@
         <v>25</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>40</v>
@@ -23528,16 +23541,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>40</v>
@@ -23561,16 +23574,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>40</v>
@@ -23594,16 +23607,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>40</v>
@@ -23627,16 +23640,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>40</v>
